--- a/outputs/BURs/tmp_IPS.xlsx
+++ b/outputs/BURs/tmp_IPS.xlsx
@@ -11,13 +11,14 @@
     <sheet name="IPS Gearing Division" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="IPS Industrial Components Divi" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="IPS Segment Functions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="L1_IPS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Integration" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="L1_IPS" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -104,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">IPS Segment Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration</t>
   </si>
   <si>
     <t xml:space="preserve">L1_IPS</t>
@@ -511,55 +515,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.755813953488372</v>
+        <v>0.0866</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.0132</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8333</v>
+        <v>0.0096</v>
       </c>
       <c r="G2" t="n">
-        <v>0.875</v>
+        <v>0.0058</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8889</v>
+        <v>0.0286</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6</v>
+        <v>0.0067</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7778</v>
+        <v>0.0057</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8333</v>
+        <v>0.0105</v>
       </c>
       <c r="L2" t="n">
-        <v>0.72</v>
+        <v>0.0229</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3333</v>
+        <v>0.0048</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5</v>
+        <v>0.0077</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8421</v>
+        <v>0.0048</v>
       </c>
       <c r="P2" t="n">
-        <v>0.75</v>
+        <v>0.0173</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.75</v>
+        <v>0.0068</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6</v>
+        <v>0.002</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6667</v>
+        <v>0.0088</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6842</v>
+        <v>0.0176</v>
       </c>
     </row>
     <row r="3">
@@ -572,56 +576,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.01188</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.00864</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.00522</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.02574</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.00603</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.00513</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0.00945</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.02061</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.00432</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.00693</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0.00432</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.01557</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0.00612</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.0018</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.00792</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.01584</v>
       </c>
     </row>
     <row r="4">
@@ -635,19 +637,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.470588235294118</v>
+        <v>0.0866</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>0.0132</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6667</v>
+        <v>0.0096</v>
       </c>
       <c r="G4" t="n">
-        <v>0.25</v>
+        <v>0.0058</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4706</v>
+        <v>0.0286</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -661,6 +663,168 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.755813953488372</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8889</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7778</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.8421</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.6842</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.470588235294118</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4706</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -749,53 +913,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.652777777777778</v>
+        <v>0.1037</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2"/>
+        <v>0.0114</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0069</v>
+      </c>
       <c r="G2" t="n">
-        <v>0.4286</v>
+        <v>0.0115</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6667</v>
+        <v>0.0297</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0.008</v>
       </c>
       <c r="J2" t="n">
-        <v>0.75</v>
+        <v>0.008</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7143</v>
+        <v>0.0116</v>
       </c>
       <c r="L2" t="n">
-        <v>0.76</v>
+        <v>0.0276</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1429</v>
+        <v>0.0069</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0.0057</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7</v>
+        <v>0.0115</v>
       </c>
       <c r="P2" t="n">
-        <v>0.55</v>
+        <v>0.0241</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5</v>
+        <v>0.0035</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6667</v>
+        <v>0.0058</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6</v>
+        <v>0.0129</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="3">
@@ -808,56 +974,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.01026</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.00621</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.01035</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.02673</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.0072</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.0072</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0.01044</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.02484</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.00621</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.00513</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0.01035</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.02169</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0.00315</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.00522</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.01161</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.01989</v>
       </c>
     </row>
     <row r="4">
@@ -871,19 +1035,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.153846153846154</v>
+        <v>0.1037</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2</v>
+        <v>0.0114</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="G4" t="n">
-        <v>0.25</v>
+        <v>0.0115</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1538</v>
+        <v>0.0297</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -897,6 +1061,166 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.652777777777778</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.153846153846154</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1538</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -985,55 +1309,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.641025641025641</v>
+        <v>0.1406</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8333</v>
+        <v>0.0125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8333</v>
+        <v>0.0047</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5714</v>
+        <v>0.0158</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7368</v>
+        <v>0.0331</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>0.0126</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4</v>
+        <v>0.0094</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6667</v>
+        <v>0.0173</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5385</v>
+        <v>0.0392</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9231</v>
+        <v>0.0094</v>
       </c>
       <c r="N2" t="n">
-        <v>0.25</v>
+        <v>0.0206</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5</v>
+        <v>0.0063</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7143</v>
+        <v>0.0363</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8</v>
+        <v>0.0095</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5</v>
+        <v>0.0064</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.0161</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5833</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="3">
@@ -1046,56 +1370,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.01125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.00423</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.01422</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.02979</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.01134</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.00846</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0.01557</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.03528</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.00846</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.01854</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0.00567</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.03267</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0.00855</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.00576</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.01449</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.02871</v>
       </c>
     </row>
     <row r="4">
@@ -1109,17 +1431,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.1406</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3333</v>
+        <v>0.0125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G4"/>
+        <v>0.0047</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0158</v>
+      </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0.0331</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -1133,6 +1457,166 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.641025641025641</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7368</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9231</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5833</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1221,55 +1705,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.56140350877193</v>
+        <v>0.1623</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3333</v>
+        <v>0.0084</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.0105</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3333</v>
+        <v>0.0146</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3846</v>
+        <v>0.0335</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6667</v>
+        <v>0.0105</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2857</v>
+        <v>0.0146</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>0.0062</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5</v>
+        <v>0.0313</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5</v>
+        <v>0.0252</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6667</v>
+        <v>0.0147</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6</v>
+        <v>0.0125</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5714</v>
+        <v>0.0523</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0.0105</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0.0173</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0.0177</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="3">
@@ -1282,56 +1766,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.00756</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.00945</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.01314</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.03015</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.00945</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.01314</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0.00558</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.02817</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.02268</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.01323</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0.01125</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.04707</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0.00945</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.01557</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.01593</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.04086</v>
       </c>
     </row>
     <row r="4">
@@ -1345,19 +1827,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.615384615384615</v>
+        <v>0.1623</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6667</v>
+        <v>0.0084</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>0.0105</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.0146</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6154</v>
+        <v>0.0335</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -1371,6 +1853,168 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.56140350877193</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3846</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6154</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1459,55 +2103,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.554347826086957</v>
+        <v>0.0889</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.0102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4286</v>
+        <v>0.0078</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>0.0094</v>
       </c>
       <c r="H2" t="n">
-        <v>0.55</v>
+        <v>0.0275</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7857</v>
+        <v>0.0078</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.0094</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5714</v>
+        <v>0.0078</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6</v>
+        <v>0.0249</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3636</v>
+        <v>0.007</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6154</v>
+        <v>0.007</v>
       </c>
       <c r="O2" t="n">
-        <v>0.375</v>
+        <v>0.0039</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4688</v>
+        <v>0.0179</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6667</v>
+        <v>0.0062</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5</v>
+        <v>0.007</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0.0055</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6667</v>
+        <v>0.0187</v>
       </c>
     </row>
     <row r="3">
@@ -1520,56 +2164,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.00918</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.00702</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.00846</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.02475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.00702</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.00846</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0.00702</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.02241</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.0063</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.0063</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0.00351</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.01611</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0.00558</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.0063</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.00495</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.01683</v>
       </c>
     </row>
     <row r="4">
@@ -1583,19 +2225,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.0889</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6842</v>
+        <v>0.0102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7</v>
+        <v>0.0078</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.0094</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6667</v>
+        <v>0.0275</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -1609,6 +2251,168 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.554347826086957</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7857</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6154</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4688</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.6667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6842</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1697,55 +2501,29 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7308</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.5833</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6585</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.7021</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.6579</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.626</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.6739</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.6036</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.7407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
       <c r="R2" t="n">
-        <v>0.5833</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7222</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1758,56 +2536,28 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1821,20 +2571,12 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.523255813953488</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5135</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5714</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -1852,4 +2594,402 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0113</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0297</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0255</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="n">
+        <v>0.01017</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00711</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02673</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.00774</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00792</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.00936</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.02502</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00792</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.00882</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.02295</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.00612</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.00594</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.00954</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0216</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0113</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0297</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7308</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6585</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7021</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6579</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.6739</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6036</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.7407</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.7222</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.6812</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.523255813953488</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5135</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5233</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/outputs/BURs/tmp_IPS.xlsx
+++ b/outputs/BURs/tmp_IPS.xlsx
@@ -11,8 +11,7 @@
     <sheet name="IPS Gearing Division" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="IPS Industrial Components Divi" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="IPS Segment Functions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Integration" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="L1_IPS" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="L1_IPS" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -80,6 +79,9 @@
     <t xml:space="preserve">Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">ytd_annualized</t>
+  </si>
+  <si>
     <t xml:space="preserve">IPS</t>
   </si>
   <si>
@@ -105,9 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">IPS Segment Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration</t>
   </si>
   <si>
     <t xml:space="preserve">L1_IPS</t>
@@ -503,22 +502,25 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0866</v>
+        <v>0.0878</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0132</v>
+        <v>0.0133</v>
       </c>
       <c r="F2" t="n">
         <v>0.0096</v>
@@ -527,19 +529,19 @@
         <v>0.0058</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0286</v>
+        <v>0.0287</v>
       </c>
       <c r="I2" t="n">
         <v>0.0067</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0057</v>
+        <v>0.0067</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0105</v>
+        <v>0.0106</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0229</v>
+        <v>0.0239</v>
       </c>
       <c r="M2" t="n">
         <v>0.0048</v>
@@ -551,7 +553,7 @@
         <v>0.0048</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0173</v>
+        <v>0.0174</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0068</v>
@@ -565,20 +567,23 @@
       <c r="T2" t="n">
         <v>0.0176</v>
       </c>
+      <c r="U2" t="n">
+        <v>0.0831</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.01188</v>
+        <v>0.01197</v>
       </c>
       <c r="F3" t="n">
         <v>0.00864</v>
@@ -587,19 +592,19 @@
         <v>0.00522</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02574</v>
+        <v>0.02583</v>
       </c>
       <c r="I3" t="n">
         <v>0.00603</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00513</v>
+        <v>0.00603</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00945</v>
+        <v>0.00954</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02061</v>
+        <v>0.02151</v>
       </c>
       <c r="M3" t="n">
         <v>0.00432</v>
@@ -611,7 +616,7 @@
         <v>0.00432</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01557</v>
+        <v>0.01566</v>
       </c>
       <c r="Q3" t="n">
         <v>0.00612</v>
@@ -625,33 +630,38 @@
       <c r="T3" t="n">
         <v>0.01584</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.0831</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0866</v>
+        <v>0.0277</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0132</v>
+        <v>0.0078</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0096</v>
+        <v>0.0049</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0058</v>
+        <v>0.007</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0286</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0198</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.008</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -663,16 +673,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.0831</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.755813953488372</v>
@@ -725,16 +738,17 @@
       <c r="T5" t="n">
         <v>0.6842</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -787,33 +801,36 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.470588235294118</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E7" t="n">
         <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6667</v>
+        <v>0.5455</v>
       </c>
       <c r="G7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.25</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.4706</v>
-      </c>
-      <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -825,6 +842,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -901,19 +919,22 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1037</v>
+        <v>0.1036</v>
       </c>
       <c r="E2" t="n">
         <v>0.0114</v>
@@ -963,16 +984,19 @@
       <c r="T2" t="n">
         <v>0.0221</v>
       </c>
+      <c r="U2" t="n">
+        <v>0.0858</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -1023,33 +1047,38 @@
       <c r="T3" t="n">
         <v>0.01989</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.0858</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.1037</v>
+        <v>0.0286</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0114</v>
+        <v>0.0107</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0069</v>
+        <v>0.0035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0115</v>
+        <v>0.012</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0297</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0261</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0024</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1061,16 +1090,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.0858</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.652777777777778</v>
@@ -1121,16 +1153,17 @@
       <c r="T5" t="n">
         <v>0.6</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1183,19 +1216,20 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="n">
-        <v>0.153846153846154</v>
+        <v>0.35</v>
       </c>
       <c r="E7" t="n">
         <v>0.2</v>
@@ -1204,12 +1238,14 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.25</v>
+        <v>0.5714</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1538</v>
-      </c>
-      <c r="I7"/>
+        <v>0.3125</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -1221,6 +1257,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1297,19 +1334,22 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1406</v>
+        <v>0.1403</v>
       </c>
       <c r="E2" t="n">
         <v>0.0125</v>
@@ -1321,7 +1361,7 @@
         <v>0.0158</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0331</v>
+        <v>0.033</v>
       </c>
       <c r="I2" t="n">
         <v>0.0126</v>
@@ -1330,7 +1370,7 @@
         <v>0.0094</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0173</v>
+        <v>0.0172</v>
       </c>
       <c r="L2" t="n">
         <v>0.0392</v>
@@ -1351,24 +1391,27 @@
         <v>0.0095</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0064</v>
+        <v>0.0063</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0161</v>
+        <v>0.016</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0319</v>
+        <v>0.0318</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0924</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -1381,7 +1424,7 @@
         <v>0.01422</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02979</v>
+        <v>0.0297</v>
       </c>
       <c r="I3" t="n">
         <v>0.01134</v>
@@ -1390,7 +1433,7 @@
         <v>0.00846</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01557</v>
+        <v>0.01548</v>
       </c>
       <c r="L3" t="n">
         <v>0.03528</v>
@@ -1411,41 +1454,46 @@
         <v>0.00855</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00576</v>
+        <v>0.00567</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01449</v>
+        <v>0.0144</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02871</v>
+        <v>0.02862</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1406</v>
+        <v>0.0308</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0125</v>
+        <v>0.0097</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0047</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0158</v>
+        <v>0.0114</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0331</v>
-      </c>
-      <c r="I4"/>
+        <v>0.021</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0098</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1457,16 +1505,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.0924</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.641025641025641</v>
@@ -1519,16 +1570,17 @@
       <c r="T5" t="n">
         <v>0.5833</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1581,31 +1633,34 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="n">
         <v>0.75</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I7"/>
+        <v>0.5833</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -1617,6 +1672,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1693,19 +1749,22 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1623</v>
+        <v>0.1599</v>
       </c>
       <c r="E2" t="n">
         <v>0.0084</v>
@@ -1732,16 +1791,16 @@
         <v>0.0313</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0252</v>
+        <v>0.023</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0147</v>
+        <v>0.0146</v>
       </c>
       <c r="O2" t="n">
         <v>0.0125</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0523</v>
+        <v>0.0501</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0105</v>
@@ -1753,18 +1812,21 @@
         <v>0.0177</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0454</v>
+        <v>0.0453</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -1792,16 +1854,16 @@
         <v>0.02817</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02268</v>
+        <v>0.0207</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01323</v>
+        <v>0.01314</v>
       </c>
       <c r="O3" t="n">
         <v>0.01125</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04707</v>
+        <v>0.04509</v>
       </c>
       <c r="Q3" t="n">
         <v>0.00945</v>
@@ -1813,35 +1875,40 @@
         <v>0.01593</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04086</v>
+        <v>0.04077</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0648</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1623</v>
+        <v>0.0216</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0084</v>
+        <v>0.0086</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0105</v>
+        <v>0.0021</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0146</v>
+        <v>0.0087</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0335</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0194</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0022</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1853,16 +1920,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.0648</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.56140350877193</v>
@@ -1915,16 +1985,17 @@
       <c r="T5" t="n">
         <v>1</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1977,19 +2048,20 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.615384615384615</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="E7" t="n">
         <v>0.6667</v>
@@ -1998,12 +2070,14 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6154</v>
-      </c>
-      <c r="I7"/>
+        <v>0.5714</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3333</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -2015,6 +2089,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2091,155 +2166,166 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0889</v>
+        <v>0.0966</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0102</v>
+        <v>0.0112</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0078</v>
+        <v>0.0086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0094</v>
+        <v>0.0103</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0275</v>
+        <v>0.0302</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0078</v>
+        <v>0.0086</v>
       </c>
       <c r="J2" t="n">
         <v>0.0094</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0078</v>
+        <v>0.0085</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0249</v>
+        <v>0.0265</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007</v>
+        <v>0.0077</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007</v>
+        <v>0.0077</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0039</v>
+        <v>0.0042</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0179</v>
+        <v>0.0196</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0062</v>
+        <v>0.0068</v>
       </c>
       <c r="R2" t="n">
-        <v>0.007</v>
+        <v>0.0077</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0055</v>
+        <v>0.006</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0187</v>
+        <v>0.0205</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.00918</v>
+        <v>0.01008</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00702</v>
+        <v>0.00774</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00846</v>
+        <v>0.00927</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02475</v>
+        <v>0.02718</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00702</v>
+        <v>0.00774</v>
       </c>
       <c r="J3" t="n">
         <v>0.00846</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00702</v>
+        <v>0.00765</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02241</v>
+        <v>0.02385</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0063</v>
+        <v>0.00693</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0063</v>
+        <v>0.00693</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00351</v>
+        <v>0.00378</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01611</v>
+        <v>0.01764</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00558</v>
+        <v>0.00612</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0063</v>
+        <v>0.00693</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00495</v>
+        <v>0.0054</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01683</v>
+        <v>0.01845</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0889</v>
+        <v>0.0303</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0102</v>
+        <v>0.0085</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0078</v>
+        <v>0.0042</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0094</v>
+        <v>0.011</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0275</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0236</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0068</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -2251,16 +2337,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.0909</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.554347826086957</v>
@@ -2313,16 +2402,17 @@
       <c r="T5" t="n">
         <v>0.6667</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -2375,19 +2465,20 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="E7" t="n">
         <v>0.6842</v>
@@ -2396,12 +2487,14 @@
         <v>0.7</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="I7"/>
+        <v>0.6875</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -2413,6 +2506,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2489,95 +2583,166 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+        <v>0.1097</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0286</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0069</v>
+      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.0068</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.0109</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.0246</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="E3" t="n">
+        <v>0.01044</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00729</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00972</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02745</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.00792</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.00963</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.02574</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00792</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00639</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0234</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.00621</v>
+      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.00612</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.00981</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.02214</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+        <v>0.0284</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0223</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0061</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -2589,252 +2754,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0113</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0079</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0297</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0086</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0088</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0104</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0278</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0088</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0098</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0255</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0066</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0106</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0.01017</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00711</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00945</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.02673</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.00774</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.00792</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.00936</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.02502</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.00792</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.00882</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.02295</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.00612</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.00594</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.00954</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0216</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0113</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0079</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0297</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.0852</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.636363636363636</v>
@@ -2887,16 +2819,17 @@
       <c r="T5" t="n">
         <v>0.6812</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -2949,33 +2882,36 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.523255813953488</v>
+        <v>0.516949152542373</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5135</v>
+        <v>0.5385</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5714</v>
+        <v>0.5405</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4286</v>
+        <v>0.5556</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5233</v>
-      </c>
-      <c r="I7"/>
+        <v>0.5426</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4167</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -2987,6 +2923,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outputs/BURs/tmp_IPS.xlsx
+++ b/outputs/BURs/tmp_IPS.xlsx
@@ -17,12 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
   <si>
     <t xml:space="preserve">division_function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cvd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -88,13 +91,19 @@
     <t xml:space="preserve">IPS Clutches &amp; Brakes Division</t>
   </si>
   <si>
+    <t xml:space="preserve">Voluntary Turnover Professional</t>
+  </si>
+  <si>
     <t xml:space="preserve">PY Actual</t>
   </si>
   <si>
-    <t xml:space="preserve">Goal</t>
+    <t xml:space="preserve">AOP</t>
   </si>
   <si>
-    <t xml:space="preserve">CY Actual</t>
+    <t xml:space="preserve">Commit/Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Fill Rate</t>
   </si>
   <si>
     <t xml:space="preserve">IPS Couplings Division</t>
@@ -505,253 +514,290 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.0878</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0133</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.0096</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.0058</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.0287</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0067</v>
       </c>
       <c r="J2" t="n">
         <v>0.0067</v>
       </c>
       <c r="K2" t="n">
+        <v>0.0067</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.0106</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.0239</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.0048</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.0077</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.0048</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.0174</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.0068</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.002</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.0088</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0176</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.0831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.01197</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.00864</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.00522</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.02583</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.00603</v>
       </c>
       <c r="J3" t="n">
         <v>0.00603</v>
       </c>
       <c r="K3" t="n">
+        <v>0.00603</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.00954</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.02151</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.00432</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.00693</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.00432</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.01566</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.00612</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.0018</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.00792</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.01584</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.0831</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0277</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0078</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.0049</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.007</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0198</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.008</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.006925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.006925</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.020775</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.006925</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.006925</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.006925</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.020775</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.006925</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.006925</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.006925</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.020775</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.0831</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.755813953488372</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.8333</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.875</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.8889</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.7778</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.8333</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.72</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.3333</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P5" t="n">
         <v>0.8421</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.75</v>
       </c>
       <c r="Q5" t="n">
         <v>0.75</v>
       </c>
       <c r="R5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.6</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.6842</v>
       </c>
-      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -801,48 +847,76 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.25</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.5455</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.4</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.45</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.25</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="K7" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -922,252 +996,289 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.1036</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0114</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.0069</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.0115</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.0297</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.008</v>
       </c>
       <c r="J2" t="n">
         <v>0.008</v>
       </c>
       <c r="K2" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.0116</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.0276</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.0069</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.0057</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.0115</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.0241</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.0035</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.0058</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.0129</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0221</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.0858</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.01026</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.00621</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.01035</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.02673</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0072</v>
       </c>
       <c r="J3" t="n">
         <v>0.0072</v>
       </c>
       <c r="K3" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.01044</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.02484</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.00621</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.00513</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.01035</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.02169</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.00315</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.00522</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.01161</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.01989</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.0858</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0286</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0107</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.0035</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.012</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0261</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0024</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.00715</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.00715</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.02145</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.00715</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.00715</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.00715</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.02145</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.00715</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.00715</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.00715</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.02145</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.0858</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.652777777777778</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="F5"/>
-      <c r="G5" t="n">
+      <c r="G5"/>
+      <c r="H5" t="n">
         <v>0.4286</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.8</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.75</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.7143</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.76</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.1429</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0.7</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.55</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="R5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.6667</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.6</v>
       </c>
       <c r="T5" t="n">
         <v>0.6</v>
       </c>
-      <c r="U5"/>
+      <c r="U5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
-      </c>
       <c r="E6" t="n">
         <v>0.5</v>
       </c>
@@ -1216,48 +1327,76 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.35</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.5714</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.3125</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1337,253 +1476,290 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.1403</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0125</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.0047</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.0158</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.033</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.0126</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.0094</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.0172</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.0392</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.0094</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.0206</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.0063</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.0363</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.0095</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.0063</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.016</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0318</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.0924</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.01125</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.00423</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.01422</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.0297</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.01134</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.00846</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.01548</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.03528</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.00846</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.01854</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.00567</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.03267</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.00855</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.00567</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.0144</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.02862</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.0924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.0308</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0097</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.0114</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.021</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0098</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0077</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.0924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.641025641025641</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8333</v>
       </c>
       <c r="F5" t="n">
         <v>0.8333</v>
       </c>
       <c r="G5" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5714</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.7368</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.4</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.5385</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.9231</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.25</v>
       </c>
-      <c r="O5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="P5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.7143</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>0.8</v>
       </c>
-      <c r="R5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="S5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" t="n">
         <v>0</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.5833</v>
       </c>
-      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -1633,46 +1809,74 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.5</v>
-      </c>
       <c r="F7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.75</v>
       </c>
-      <c r="G7"/>
-      <c r="H7" t="n">
+      <c r="H7"/>
+      <c r="I7" t="n">
         <v>0.5833</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.4</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="K7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1752,212 +1956,246 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.1599</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0084</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.0105</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.0146</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.0335</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.0105</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.0146</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.0062</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.0313</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.023</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.0146</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.0125</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.0501</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.0105</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.0173</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.0177</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0453</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.0648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.00756</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.00945</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.01314</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.03015</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.00945</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.01314</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.00558</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.02817</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.0207</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.01314</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.01125</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.04509</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.00945</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.01557</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.01593</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.04077</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.0648</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0216</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0086</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.0021</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.0087</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0194</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0022</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0054</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.0648</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.56140350877193</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.3333</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.3333</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.3846</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.2857</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="L5" t="n">
         <v>0.5</v>
       </c>
@@ -1965,16 +2203,16 @@
         <v>0.5</v>
       </c>
       <c r="N5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0.6</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.5714</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -1985,20 +2223,23 @@
       <c r="T5" t="n">
         <v>1</v>
       </c>
-      <c r="U5"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -2048,48 +2289,76 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.6667</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.5</v>
-      </c>
       <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.6667</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.5714</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.3333</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="K7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2169,253 +2438,290 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.0966</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0112</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.0086</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.0103</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.0302</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.0086</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.0094</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.0085</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.0265</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0077</v>
       </c>
       <c r="N2" t="n">
         <v>0.0077</v>
       </c>
       <c r="O2" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.0042</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.0196</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.0068</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.0077</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.006</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0205</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.0909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.01008</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.00774</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.00927</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.02718</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.00774</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.00846</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.00765</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.02385</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.00693</v>
       </c>
       <c r="N3" t="n">
         <v>0.00693</v>
       </c>
       <c r="O3" t="n">
+        <v>0.00693</v>
+      </c>
+      <c r="P3" t="n">
         <v>0.00378</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.01764</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.00612</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.00693</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.0054</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.01845</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.0909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0303</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0085</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.0042</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.011</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0236</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0068</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.007575</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.007575</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.022725</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.007575</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.007575</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.007575</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.022725</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.007575</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.007575</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.007575</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.022725</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.0909</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.554347826086957</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.4286</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.8</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.55</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.7857</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.5714</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.6</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.3636</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.6154</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0.375</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.4688</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="R5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="S5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" t="n">
         <v>1</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -2465,48 +2771,76 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.65</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.6842</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.7</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.6667</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.6875</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2586,253 +2920,290 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.1097</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0116</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.0081</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.0108</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.0305</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.0088</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.009</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.0107</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.0286</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.0088</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.01</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.0071</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.026</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.0069</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.0068</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.0109</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0246</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.0852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.01044</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.00729</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.00972</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.02745</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.00792</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.0081</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.00963</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.02574</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.00792</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.009</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.00639</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.0234</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.00621</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.00612</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.00981</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.02214</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.0852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0284</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.009</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.0034</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.01</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0223</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0061</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0071</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.0852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.636363636363636</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.7308</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.7</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.5833</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.6585</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.7021</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.6579</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.626</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.525</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.6</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0.6739</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.6036</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>0.7407</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.5833</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.7222</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.6812</v>
       </c>
-      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -2882,48 +3253,76 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.5385</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.5405</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.5556</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.5426</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.4167</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="K7" t="n">
+        <v>0.516949152542373</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.516949152542373</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.516949152542373</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.516949152542373</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.516949152542373</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.516949152542373</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.516949152542373</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.516949152542373</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.516949152542373</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.516949152542373</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.516949152542373</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outputs/BURs/tmp_IPS.xlsx
+++ b/outputs/BURs/tmp_IPS.xlsx
@@ -28,10 +28,10 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">data_source</t>
+    <t xml:space="preserve">ytd_value</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd</t>
+    <t xml:space="preserve">data_source</t>
   </si>
   <si>
     <t xml:space="preserve">Jan</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Q4</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_annualized</t>
+    <t xml:space="preserve">FY</t>
   </si>
   <si>
     <t xml:space="preserve">IPS</t>
@@ -125,14 +125,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="6">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,8 +167,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,62 +546,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="n">
+        <v>0.0831</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="1" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.0096</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.0287</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0.0067</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0.0067</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0.0239</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>0.0174</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>0.0176</v>
+      </c>
+      <c r="V2" s="1" t="n">
         <v>0.0878</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0133</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0096</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0287</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0067</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0067</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0106</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0239</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0174</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0088</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0176</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0831</v>
       </c>
     </row>
     <row r="3">
@@ -596,60 +614,62 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="n">
+        <v>0.0831</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.01197</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="1" t="n">
         <v>0.00864</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.00522</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="1" t="n">
         <v>0.02583</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="1" t="n">
         <v>0.00603</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="1" t="n">
         <v>0.00603</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="1" t="n">
         <v>0.00954</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="1" t="n">
         <v>0.02151</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="1" t="n">
         <v>0.00432</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="1" t="n">
         <v>0.00693</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="1" t="n">
         <v>0.00432</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="1" t="n">
         <v>0.01566</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="1" t="n">
         <v>0.00612</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="1" t="n">
         <v>0.0018</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="1" t="n">
         <v>0.00792</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="1" t="n">
         <v>0.01584</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.0831</v>
+      <c r="V3" s="1" t="n">
+        <v>0.07902</v>
       </c>
     </row>
     <row r="4">
@@ -662,61 +682,61 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="n">
+        <v>0.0831</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0277</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" s="1" t="n">
         <v>0.0078</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="1" t="n">
         <v>0.0049</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="1" t="n">
         <v>0.0198</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="1" t="n">
         <v>0.006925</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="1" t="n">
         <v>0.006925</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="1" t="n">
         <v>0.020775</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="1" t="n">
         <v>0.006925</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="1" t="n">
         <v>0.006925</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="1" t="n">
         <v>0.006925</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="1" t="n">
         <v>0.020775</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="1" t="n">
         <v>0.006925</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="1" t="n">
         <v>0.006925</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="1" t="n">
         <v>0.006925</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="1" t="n">
         <v>0.020775</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="1" t="n">
         <v>0.0831</v>
       </c>
     </row>
@@ -730,61 +750,63 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.8889</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0.7778</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0.8421</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>0.6842</v>
+      </c>
+      <c r="V5" s="1" t="n">
         <v>0.755813953488372</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8889</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.7778</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.8421</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.6842</v>
-      </c>
-      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -796,61 +818,63 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6"/>
+      <c r="F6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -862,61 +886,63 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.5455</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="1" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5455</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="L7" s="1" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" s="1" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" s="1" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" s="1" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" s="1" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" s="1" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" s="1" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" s="1" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" s="1" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" s="1" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" s="1" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1010,62 +1036,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="n">
+        <v>0.0858</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="2" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0.0297</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>0.0129</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>0.0221</v>
+      </c>
+      <c r="V2" s="2" t="n">
         <v>0.1036</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0115</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0297</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0276</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0115</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0241</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0221</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0858</v>
       </c>
     </row>
     <row r="3">
@@ -1078,60 +1104,62 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="n">
+        <v>0.0858</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>0.01026</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="2" t="n">
         <v>0.00621</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>0.01035</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="2" t="n">
         <v>0.02673</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="2" t="n">
         <v>0.0072</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="2" t="n">
         <v>0.0072</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="2" t="n">
         <v>0.01044</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="2" t="n">
         <v>0.02484</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="2" t="n">
         <v>0.00621</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="2" t="n">
         <v>0.00513</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="2" t="n">
         <v>0.01035</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="2" t="n">
         <v>0.02169</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="2" t="n">
         <v>0.00315</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="2" t="n">
         <v>0.00522</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="2" t="n">
         <v>0.01161</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="2" t="n">
         <v>0.01989</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.0858</v>
+      <c r="V3" s="2" t="n">
+        <v>0.09324</v>
       </c>
     </row>
     <row r="4">
@@ -1144,61 +1172,61 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="n">
+        <v>0.0858</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0286</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.0107</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2" t="n">
         <v>0.0035</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>0.012</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="2" t="n">
         <v>0.0261</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="2" t="n">
         <v>0.0024</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="2" t="n">
         <v>0.00715</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="2" t="n">
         <v>0.00715</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="2" t="n">
         <v>0.02145</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="2" t="n">
         <v>0.00715</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="2" t="n">
         <v>0.00715</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="2" t="n">
         <v>0.00715</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="2" t="n">
         <v>0.02145</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="2" t="n">
         <v>0.00715</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="2" t="n">
         <v>0.00715</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="2" t="n">
         <v>0.00715</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="2" t="n">
         <v>0.02145</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="2" t="n">
         <v>0.0858</v>
       </c>
     </row>
@@ -1212,59 +1240,61 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V5" s="2" t="n">
         <v>0.652777777777778</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.1429</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1276,61 +1306,63 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6"/>
+      <c r="F6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1342,61 +1374,63 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.5714</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="L7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1490,62 +1524,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="n">
+        <v>0.0924</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="3" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0.0158</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>0.0206</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>0.0363</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>0.0318</v>
+      </c>
+      <c r="V2" s="3" t="n">
         <v>0.1403</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0158</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0126</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0172</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0392</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0206</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0363</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0095</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0318</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0924</v>
       </c>
     </row>
     <row r="3">
@@ -1558,60 +1592,62 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="n">
+        <v>0.0924</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.01125</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="3" t="n">
         <v>0.00423</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="3" t="n">
         <v>0.01422</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="3" t="n">
         <v>0.0297</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="3" t="n">
         <v>0.01134</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="3" t="n">
         <v>0.00846</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="3" t="n">
         <v>0.01548</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="3" t="n">
         <v>0.03528</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="3" t="n">
         <v>0.00846</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="3" t="n">
         <v>0.01854</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="3" t="n">
         <v>0.00567</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="3" t="n">
         <v>0.03267</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="3" t="n">
         <v>0.00855</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="3" t="n">
         <v>0.00567</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="3" t="n">
         <v>0.0144</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="3" t="n">
         <v>0.02862</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.0924</v>
+      <c r="V3" s="3" t="n">
+        <v>0.12627</v>
       </c>
     </row>
     <row r="4">
@@ -1624,61 +1660,61 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="n">
+        <v>0.0924</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0308</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.0097</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="3" t="n">
         <v>0.0114</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="3" t="n">
         <v>0.021</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="3" t="n">
         <v>0.0098</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="3" t="n">
         <v>0.0077</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="3" t="n">
         <v>0.0077</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="3" t="n">
         <v>0.0231</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="3" t="n">
         <v>0.0077</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="3" t="n">
         <v>0.0077</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="3" t="n">
         <v>0.0077</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="3" t="n">
         <v>0.0231</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="3" t="n">
         <v>0.0077</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="3" t="n">
         <v>0.0077</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="3" t="n">
         <v>0.0077</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="3" t="n">
         <v>0.0231</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="3" t="n">
         <v>0.0924</v>
       </c>
     </row>
@@ -1692,61 +1728,63 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="3" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0.7368</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>0.9231</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="V5" s="3" t="n">
         <v>0.641025641025641</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5714</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.7368</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.5385</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.9231</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.5833</v>
-      </c>
-      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1758,61 +1796,63 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6"/>
+      <c r="F6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1824,59 +1864,61 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K7" s="3" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7" t="n">
-        <v>0.5833</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="L7" s="3" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" s="3" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" s="3" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" s="3" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" s="3" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" s="3" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" s="3" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" s="3" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" s="3" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" s="3" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" s="3" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1970,62 +2012,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="n">
+        <v>0.0648</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="4" t="n">
+        <v>0.0084</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.0335</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.0062</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.0313</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.0501</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.0173</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.0453</v>
+      </c>
+      <c r="V2" s="4" t="n">
         <v>0.1599</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0084</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0146</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0335</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0146</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0313</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0146</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0501</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0173</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0453</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0648</v>
       </c>
     </row>
     <row r="3">
@@ -2038,60 +2080,62 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="n">
+        <v>0.0648</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
+      <c r="F3" s="4" t="n">
         <v>0.00756</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4" t="n">
         <v>0.00945</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4" t="n">
         <v>0.01314</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4" t="n">
         <v>0.03015</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="4" t="n">
         <v>0.00945</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="4" t="n">
         <v>0.01314</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="4" t="n">
         <v>0.00558</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="4" t="n">
         <v>0.02817</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="4" t="n">
         <v>0.0207</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="4" t="n">
         <v>0.01314</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="4" t="n">
         <v>0.01125</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="4" t="n">
         <v>0.04509</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="4" t="n">
         <v>0.00945</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="4" t="n">
         <v>0.01557</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="4" t="n">
         <v>0.01593</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="4" t="n">
         <v>0.04077</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.0648</v>
+      <c r="V3" s="4" t="n">
+        <v>0.14391</v>
       </c>
     </row>
     <row r="4">
@@ -2104,61 +2148,61 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="n">
+        <v>0.0648</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0216</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4" t="n">
         <v>0.0086</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="4" t="n">
         <v>0.0021</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="4" t="n">
         <v>0.0087</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="4" t="n">
         <v>0.0194</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="4" t="n">
         <v>0.0022</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="4" t="n">
         <v>0.0054</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="4" t="n">
         <v>0.0054</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="4" t="n">
         <v>0.0162</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="4" t="n">
         <v>0.0054</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="4" t="n">
         <v>0.0054</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="4" t="n">
         <v>0.0054</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="4" t="n">
         <v>0.0162</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="4" t="n">
         <v>0.0054</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="4" t="n">
         <v>0.0054</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="4" t="n">
         <v>0.0054</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="4" t="n">
         <v>0.0162</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="4" t="n">
         <v>0.0648</v>
       </c>
     </row>
@@ -2172,61 +2216,63 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="4" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.3846</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>0.56140350877193</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.3846</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.2857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.5714</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2238,61 +2284,63 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6"/>
+      <c r="F6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2304,61 +2352,63 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" s="4" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="K7" s="4" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.5714</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="L7" s="4" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" s="4" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" s="4" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" s="4" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" s="4" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" s="4" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" s="4" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" s="4" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" s="4" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" s="4" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" s="4" t="n">
         <v>0.529411764705882</v>
       </c>
-      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2452,62 +2502,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="n">
+        <v>0.0909</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="5" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0.0302</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="V2" s="5" t="n">
         <v>0.0966</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0112</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0086</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0103</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0302</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0086</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0085</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0265</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0196</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0205</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0909</v>
       </c>
     </row>
     <row r="3">
@@ -2520,60 +2570,62 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="n">
+        <v>0.0909</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
+      <c r="F3" s="5" t="n">
         <v>0.01008</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="5" t="n">
         <v>0.00774</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="5" t="n">
         <v>0.00927</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="5" t="n">
         <v>0.02718</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="5" t="n">
         <v>0.00774</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="5" t="n">
         <v>0.00846</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="5" t="n">
         <v>0.00765</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="5" t="n">
         <v>0.02385</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="5" t="n">
         <v>0.00693</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="5" t="n">
         <v>0.00693</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="5" t="n">
         <v>0.00378</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="5" t="n">
         <v>0.01764</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="5" t="n">
         <v>0.00612</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="5" t="n">
         <v>0.00693</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="5" t="n">
         <v>0.0054</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="5" t="n">
         <v>0.01845</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.0909</v>
+      <c r="V3" s="5" t="n">
+        <v>0.08694</v>
       </c>
     </row>
     <row r="4">
@@ -2586,61 +2638,61 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="n">
+        <v>0.0909</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0303</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" s="5" t="n">
         <v>0.0085</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="5" t="n">
         <v>0.0042</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="5" t="n">
         <v>0.011</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="5" t="n">
         <v>0.0236</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="5" t="n">
         <v>0.0068</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="5" t="n">
         <v>0.007575</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="5" t="n">
         <v>0.007575</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="5" t="n">
         <v>0.022725</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="5" t="n">
         <v>0.007575</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="5" t="n">
         <v>0.007575</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="5" t="n">
         <v>0.007575</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="5" t="n">
         <v>0.022725</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="5" t="n">
         <v>0.007575</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="5" t="n">
         <v>0.007575</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="5" t="n">
         <v>0.007575</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="5" t="n">
         <v>0.022725</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="5" t="n">
         <v>0.0909</v>
       </c>
     </row>
@@ -2654,61 +2706,63 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.7857</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>0.6154</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0.4688</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="V5" s="5" t="n">
         <v>0.554347826086957</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7857</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5714</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.3636</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.6154</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.4688</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2720,61 +2774,63 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6"/>
+      <c r="F6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2786,61 +2842,63 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" s="5" t="n">
+        <v>0.6842</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.6842</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="L7" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2934,62 +2992,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="n">
+        <v>0.0852</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="6" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <v>0.0286</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="O2" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P2" s="6" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="U2" s="6" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="V2" s="6" t="n">
         <v>0.1097</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0081</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0108</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0305</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0088</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0107</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0286</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0088</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0109</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0246</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0852</v>
       </c>
     </row>
     <row r="3">
@@ -3002,60 +3060,62 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="n">
+        <v>0.0852</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
+      <c r="F3" s="6" t="n">
         <v>0.01044</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="6" t="n">
         <v>0.00729</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="6" t="n">
         <v>0.00972</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="6" t="n">
         <v>0.02745</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="6" t="n">
         <v>0.00792</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="6" t="n">
         <v>0.0081</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="6" t="n">
         <v>0.00963</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="6" t="n">
         <v>0.02574</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="6" t="n">
         <v>0.00792</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="6" t="n">
         <v>0.009</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="6" t="n">
         <v>0.00639</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="6" t="n">
         <v>0.0234</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="6" t="n">
         <v>0.00621</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="6" t="n">
         <v>0.00612</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="6" t="n">
         <v>0.00981</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="6" t="n">
         <v>0.02214</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.0852</v>
+      <c r="V3" s="6" t="n">
+        <v>0.09873</v>
       </c>
     </row>
     <row r="4">
@@ -3068,61 +3128,61 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="n">
+        <v>0.0852</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0284</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" s="6" t="n">
         <v>0.009</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="6" t="n">
         <v>0.0034</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="6" t="n">
         <v>0.0223</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="6" t="n">
         <v>0.0061</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="6" t="n">
         <v>0.0071</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="6" t="n">
         <v>0.0071</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="6" t="n">
         <v>0.0213</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="6" t="n">
         <v>0.0071</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="6" t="n">
         <v>0.0071</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="6" t="n">
         <v>0.0071</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="6" t="n">
         <v>0.0213</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="6" t="n">
         <v>0.0071</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="6" t="n">
         <v>0.0071</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="6" t="n">
         <v>0.0071</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="6" t="n">
         <v>0.0213</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="6" t="n">
         <v>0.0852</v>
       </c>
     </row>
@@ -3136,61 +3196,63 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="n">
+        <v>0.516949152542373</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="6" t="n">
+        <v>0.7308</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.6585</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.7021</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.6579</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.6739</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>0.6036</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>0.7407</v>
+      </c>
+      <c r="S5" s="6" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>0.7222</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>0.6812</v>
+      </c>
+      <c r="V5" s="6" t="n">
         <v>0.636363636363636</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.7308</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5833</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6585</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7021</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.6579</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.626</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.6739</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.6036</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.7407</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.5833</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.7222</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.6812</v>
-      </c>
-      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3202,61 +3264,63 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="n">
+        <v>0.516949152542373</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6"/>
+      <c r="F6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3268,61 +3332,63 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="n">
+        <v>0.516949152542373</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" s="6" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.5405</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.5556</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.5426</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="K7" s="6" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.5385</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5405</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.5556</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.5426</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4167</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="L7" s="6" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" s="6" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" s="6" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" s="6" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" s="6" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" s="6" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" s="6" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" s="6" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" s="6" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" s="6" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" s="6" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
